--- a/Assets/Resources/xml/items/ItemTable.xlsx
+++ b/Assets/Resources/xml/items/ItemTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentBalance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>Small Heal P</t>
   </si>
@@ -130,12 +130,156 @@
   </si>
   <si>
     <t>Energy</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Sdef</t>
+  </si>
+  <si>
+    <t>Mdef</t>
+  </si>
+  <si>
+    <t>Gdef</t>
+  </si>
+  <si>
+    <t>Udef</t>
+  </si>
+  <si>
+    <t>Time Battles</t>
+  </si>
+  <si>
+    <t>crit chance s</t>
+  </si>
+  <si>
+    <t>crit chance m</t>
+  </si>
+  <si>
+    <t>crit chance g</t>
+  </si>
+  <si>
+    <t>crit chance u</t>
+  </si>
+  <si>
+    <t>max hp/ene % s</t>
+  </si>
+  <si>
+    <t>max hp/ene % m</t>
+  </si>
+  <si>
+    <t>max hp/ene % u</t>
+  </si>
+  <si>
+    <t>max hp/ene % g</t>
+  </si>
+  <si>
+    <t>max hp/ene Val m</t>
+  </si>
+  <si>
+    <t>max hp/ene Val u</t>
+  </si>
+  <si>
+    <t>max hp/ene Val g</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>max hp/ene phys mag crit dmg Val Val s</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AP UP 1s</t>
+  </si>
+  <si>
+    <t>AP UP 3g</t>
+  </si>
+  <si>
+    <t>AP UP 2m</t>
+  </si>
+  <si>
+    <t>AP UP 4u</t>
+  </si>
+  <si>
+    <t>phys  crit dmg % s</t>
+  </si>
+  <si>
+    <t>phys  crit dmg % m</t>
+  </si>
+  <si>
+    <t>phys  crit dmg % g</t>
+  </si>
+  <si>
+    <t>phys  crit dmg % u</t>
+  </si>
+  <si>
+    <t>mag atk % U</t>
+  </si>
+  <si>
+    <t>mag atk % G</t>
+  </si>
+  <si>
+    <t>mag atk % M</t>
+  </si>
+  <si>
+    <t>mag atk % S</t>
+  </si>
+  <si>
+    <t>phys atk val</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>mag atk val</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>crit dmg val</t>
+  </si>
+  <si>
+    <t>max stat val</t>
+  </si>
+  <si>
+    <t>max stat %</t>
+  </si>
+  <si>
+    <t>val</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,21 +593,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -838,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -852,7 +995,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -866,7 +1009,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -880,7 +1023,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -892,6 +1035,854 @@
       </c>
       <c r="D20">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>8000</v>
+      </c>
+      <c r="E24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>14000</v>
+      </c>
+      <c r="E25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>22000</v>
+      </c>
+      <c r="E26">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>28000</v>
+      </c>
+      <c r="E27">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1500</v>
+      </c>
+      <c r="E29">
+        <v>750</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="2">
+        <v>150</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>1500</v>
+      </c>
+      <c r="K29">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>6000</v>
+      </c>
+      <c r="E30">
+        <v>3000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>6000</v>
+      </c>
+      <c r="K30">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>12000</v>
+      </c>
+      <c r="E31">
+        <v>6000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>12000</v>
+      </c>
+      <c r="K31">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>20000</v>
+      </c>
+      <c r="E32">
+        <v>10000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>20000</v>
+      </c>
+      <c r="K32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>3000</v>
+      </c>
+      <c r="E34">
+        <v>1500</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>10000</v>
+      </c>
+      <c r="K34">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>8000</v>
+      </c>
+      <c r="E35">
+        <v>4000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>22000</v>
+      </c>
+      <c r="K35">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>15000</v>
+      </c>
+      <c r="E36">
+        <v>7500</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>35000</v>
+      </c>
+      <c r="K36">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>27000</v>
+      </c>
+      <c r="E37">
+        <v>13500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>50000</v>
+      </c>
+      <c r="K37">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>5000</v>
+      </c>
+      <c r="E39">
+        <v>2500</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>12000</v>
+      </c>
+      <c r="E40">
+        <v>6000</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>20000</v>
+      </c>
+      <c r="E41">
+        <v>10000</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>32000</v>
+      </c>
+      <c r="E42">
+        <v>16000</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>5000</v>
+      </c>
+      <c r="E44">
+        <v>2500</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>12000</v>
+      </c>
+      <c r="E45">
+        <v>6000</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>20000</v>
+      </c>
+      <c r="E46">
+        <v>10000</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>32000</v>
+      </c>
+      <c r="E47">
+        <v>16000</v>
+      </c>
+      <c r="H47">
+        <v>150</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49">
+        <v>40</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>5000</v>
+      </c>
+      <c r="E50">
+        <v>2500</v>
+      </c>
+      <c r="H50">
+        <v>80</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>12000</v>
+      </c>
+      <c r="E51">
+        <v>6000</v>
+      </c>
+      <c r="H51">
+        <v>160</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>20000</v>
+      </c>
+      <c r="E52">
+        <v>10000</v>
+      </c>
+      <c r="H52">
+        <v>320</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>32000</v>
+      </c>
+      <c r="E53">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>45</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
